--- a/Main Assignment Maven/Xyzbank/src/main/java/com/xyzbank/qa/testdata/CustomerData.xlsx
+++ b/Main Assignment Maven/Xyzbank/src/main/java/com/xyzbank/qa/testdata/CustomerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udayprsingh\IdeaProjects\Xyzbank\src\main\java\com\xyzbank\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CC1AAA-9889-40B9-A480-7498ED32C534}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640F06C8-D73F-4644-82A0-03A658ABEFF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFA861AF-EA3C-4DB8-9AE1-D4D33A748D5A}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Main Assignment Maven/Xyzbank/src/main/java/com/xyzbank/qa/testdata/CustomerData.xlsx
+++ b/Main Assignment Maven/Xyzbank/src/main/java/com/xyzbank/qa/testdata/CustomerData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\udayprsingh\IdeaProjects\Xyzbank\src\main\java\com\xyzbank\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640F06C8-D73F-4644-82A0-03A658ABEFF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D40D35-596F-47CE-88EC-B9B0F196E272}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FFA861AF-EA3C-4DB8-9AE1-D4D33A748D5A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Customer</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Dollar</t>
+  </si>
+  <si>
+    <t>moneu</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890E34A8-9DAA-4625-805C-821BCDE3B9F1}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,44 +442,59 @@
     <col min="2" max="2" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4">
+        <v>4000</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1220</v>
       </c>
     </row>
   </sheetData>
